--- a/Cafeteria/cafeteriaMenu.xlsx
+++ b/Cafeteria/cafeteriaMenu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deniz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="215">
   <si>
     <t>Gün</t>
   </si>
@@ -88,565 +88,586 @@
     <t>Öğün Adı (En)</t>
   </si>
   <si>
-    <t>EZOGELİN ÇORBA 279 Cal / 9,8 GR</t>
+    <t xml:space="preserve">SÜTLAÇ 185 kcal / 2,60 HR     </t>
   </si>
   <si>
-    <t>RED LENTIL SOUP 279 Cal / 9,8 GR</t>
+    <t>DESSERT 185 kcal / 2,60 HR</t>
   </si>
   <si>
-    <t>MANTARLI TAVUK SOTE   447 Cal / 34 GR</t>
+    <t>MANTARLI TAVUK SOTE   447 kcal / 34 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve"> CHICKEN WITH MUSHROOM 447 Cal / 34 GR</t>
+    <t>ETLİ BEZELYE 248 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>PEYNİRLİ MAKARNA 76,25 Cal / 4,4 GR</t>
+    <t>SEBZELİ  IZGARA KÖFTE 311 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve"> MACARONI WITH CHEESE 76,25 Cal / 4,4 GR</t>
+    <t>KREMALI MANTAR ÇORBA 135 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>MAYADANOZLU TARATOR 76,25 Cal / 4,4 GR</t>
+    <t>MUSHROOM SOUP 135 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>SALATA 36 Cal / 1,75 GR</t>
+    <t>MEYVE 180 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>SALAD 36 Cal / 1,75 GR</t>
+    <t>FRUIT 180 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>YAYLA ÇORBA 240 Cal / 4,9 GR</t>
+    <t>ETLİ NOHUT 396 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t>ETLİ BEZELYE 248 Cal / 9 GR</t>
+    <t xml:space="preserve"> SOSLU MAKARNA 510 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>SOUP WITH YOGURD AND RICE 240 Cal / 4,9 GR</t>
+    <t>KAZANDİBİ 202 kcal / 3,12 gr protein</t>
   </si>
   <si>
-    <t>HAŞHAŞLI ŞEKERPARE  421 Cal / 7.4 GR</t>
+    <t>DESSERT 202 kcal / 3,12 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 421 Cal / 7.4 GR</t>
+    <t>ETLİ TÜRLÜ  470 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>CACIK 120 Cal / 8.2 GR</t>
+    <t>SÜLEYMANİYE ÇORBA 263 kcal / 11 gr protein</t>
   </si>
   <si>
-    <t>TZATZIKI 120 Cal / 8.2 GR</t>
+    <t>ALİ PAŞA PİLAV 330 kcal  / 5 gr protein</t>
   </si>
   <si>
-    <t>SEBZELİ ÇORBA 189 Cal / 3,2 GR</t>
+    <t>ULUDAĞ KÖFTE 298 kcal / 23 gr protein</t>
   </si>
   <si>
-    <t>VEGETABLE SOUP 189 Cal / 3,2 GR</t>
+    <t>MEATBALLS 298 kcal / 23 gr protein</t>
   </si>
   <si>
-    <t>PİRİNÇ PİLAVI 469 Cal / 12,0 GR</t>
+    <t>PEYNİRLİ MAKARNA 510 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>WHITE BEANS WITH MEAT 368 Cal / 20,6 GR</t>
+    <t>PATATES OTURTMA  507 kcal / 15 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAF 469 Cal / 12,0 GR</t>
+    <t>CHICK PEA STEW 396 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t>PORTAKALLI REVANİ 512/ 5,20 gr</t>
+    <t>BAHAR KEBABI 469 kcal / 32 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 512/ 5,20 gr</t>
+    <t>KÖFTELİ ISPANAK 295,13 / 23,75 gr protein</t>
   </si>
   <si>
-    <t>YOGHURT  76,25 / 4,4 gr</t>
+    <t>ETLİ TÜRLÜ 470 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>YOĞURT  76,25 / 4,4 gr</t>
+    <t>YOĞURTLU AYDIN KÖFTE  427 kcal / 22,01 gr protein</t>
   </si>
   <si>
-    <t>MEYHANE PİLAVI 413 Cal / 10,75 GR</t>
+    <t xml:space="preserve"> PEYNİRLİ MAKARNA 510 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>CRACKED WHEAT PILAFF WITH TOMATO PASTE 413 Cal / 10,75 GR</t>
+    <t>SALATA 36 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>ŞEHRİYE ÇORBA 113 Cal / 2,15 GR</t>
+    <t>SALAD 36 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>VERMICELLI SOUP 113 Cal / 2,15 GR</t>
+    <t>DESSERT 107 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>KAŞARLI DOMATES ÇORBA 176 Cal / 4,4 GR</t>
+    <t>PEYNİRLİ MAKARNA 76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>TOMATO SOUP WITH CHEESE 176 Cal / 4,4 GR</t>
+    <t>MAYADANOZLU TARATOR 76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>SOSLU SPAGETTİ 361 Cal / 5,7 GR</t>
+    <t>YOĞURT  76 kcal/ 4 gr protein</t>
   </si>
   <si>
-    <t>SPAGHETTI WITH SAUCE 361 Cal / 5,7 GR</t>
+    <t>YOGHURT  76 kcal/ 4 gr protein</t>
   </si>
   <si>
-    <t>PEYNİRLİ KOL BÖREĞİ 244 Cal / 14,5 GR</t>
+    <t>YOGHURT  76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>ROLLED PASTRY WITH SOFT CHEESE 244 Cal / 14,5 GR</t>
+    <t>HAVUÇLU TARATOR 76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>MERCİMEK ÇORBA 262 Cal / 9,2 GR</t>
+    <t>KAŞARLI DOMATES ÇORBA 176 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>KREMALI MANTAR ÇORBA 135 Cal / 2 GR</t>
+    <t>NANELİ TARATOR 76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>MUSHROOM SOUP 135 Cal / 2 GR</t>
+    <t>CACIK 120 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>AKÇAABAT KÖFTE 248 Cal / 19,65 GR</t>
+    <t>TZATZIKI 120 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>MEATBALL 248 Cal / 19,65 GR</t>
+    <t>SUPANGLE 374 kcal / 1 gr protein</t>
   </si>
   <si>
-    <t>TEL ŞEHRİYELİ PİRİNÇ PİLAVI 417 Cal / 6,3 GR</t>
+    <t>DESSERT 374 kcal / 1 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAF 417 Cal / 6,3 GR</t>
+    <t>EKMEK KADAYIFI 374 kcal / 1 gr protein</t>
   </si>
   <si>
-    <t>KREMALI ŞEHRİYE ÇORBA 262 Cal / 9,2 GR</t>
+    <t>TTZATZIKI 120 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>VERMİCELLİ SOUP 262 Cal / 9,2 GR</t>
+    <t>ZEYTİNLİ ERİŞTE 343 kcal / 55 gr protein</t>
   </si>
   <si>
-    <t>PİLİÇ ROTİ  998 Cal / 52,15 GR</t>
+    <t>MEYHANE PİLAVI 413 kcal / 11 gr protein</t>
   </si>
   <si>
-    <t>FRIED CHICKEN WITH SAUCE 998 Cal / 52,15 GR</t>
+    <t>KİLİS TAVA 375 kcal / 30 gr protein</t>
   </si>
   <si>
-    <t>NANELİ TARATOR 76,25 Cal / 4,4 GR</t>
+    <t>İNEGÖL KÖFTE 651 kcal / 25 gr protein</t>
   </si>
   <si>
-    <t>HAVUÇLU TARATOR 76,25 Cal / 4,4 GR</t>
+    <t>MEATBALLS 651 kcal / 25 gr protein</t>
   </si>
   <si>
-    <t>MEYVE 180 Cal / 2 GR</t>
+    <t>ISPANAKLI KAŞARLI SUFLE 312 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>FRUIT 180 Cal / 2 GR</t>
+    <t>GEMİCİ USULU KURU FASULYE 357 kcal / 16 gr protein</t>
   </si>
   <si>
-    <t>SÜZME MERCİMEK ÇORBA 262 Cal / 9,2 GR</t>
+    <t>WHITE BEANS 357 kcal / 16 gr protein</t>
   </si>
   <si>
-    <t>KAYSERİ MANTI 358 Cal / 13.6 GR</t>
+    <t>TAVUK HAŞLAMA 742 kcal / 32 gr protein</t>
   </si>
   <si>
-    <t>RED LENTIL SOUP 262 Cal / 9,2 GR</t>
+    <t>PİLİÇ ROTİ  998 kcal / 52 gr protein</t>
   </si>
   <si>
-    <t>DUMPLINGS COVERED WITH YOGURD AND GARLIC SAUCE 358 Cal / 13.6 GR</t>
+    <t>TAVUK KIZARTMA 998 kcal / 52 gr protein</t>
   </si>
   <si>
-    <t>EZOGELIN SOUP 279 Cal / 9,8 GR</t>
+    <t>FRIED CHICKEN 998 kcal / 52 gr protein</t>
   </si>
   <si>
-    <t>FIRINDA BEŞAMEL SOSLU MANTARLI TAVUK 431 Cal / 35,43 GR</t>
+    <t>ETLİ TAZE FASÜLYE 168 kcal / 7 gr protein</t>
   </si>
   <si>
-    <t>CHICKEN WITH BECHAMEL SAUCE 431 Cal / 35,43 GR</t>
+    <t>HASANPAŞA KÖFTE 340 kcal / 23 gr protein</t>
   </si>
   <si>
-    <t>GREEN BEANS WITH MEAT 168 Cal / 7,0 GR</t>
+    <t xml:space="preserve">  MEATBALLS 340 kcal / 23 gr protein</t>
   </si>
   <si>
-    <t>BULGUR PİLAVI 377 Cal / 8,75 GR</t>
+    <t>TERBİYELİ KÖFTE 340 kcal / 23 gr protein</t>
   </si>
   <si>
-    <t>CRACKED WHEAT PILAF 377 Cal / 8,75 GR</t>
+    <t>ETLİ BAMYA 256,17 kcal / 12 gr protein</t>
   </si>
   <si>
-    <t>ANTEP USULÜ ZERDE 107 Cal / 1,65 GR</t>
+    <t>TALAŞ BÖREĞİ 402 kcal / 11 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 107 Cal / 1,65 GR</t>
+    <t>GÖKKUŞAĞI PİLAVI 397 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>ETLİ NOHUT 396 Cal / 24 GR</t>
+    <t>RICE PILAF 397 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>CHICKPEAS WITH MEAT 396 Cal / 24 GR</t>
+    <t>DOMATESLİ BULGUR PİLAVI  291 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>KAZANDİBİ 202 Cal / 3,12 GR</t>
+    <t>BULGUR PİLAVI 377 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 202 Cal / 3,12 GR</t>
+    <t>CRACKED WHEAT PILAF 377 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>ZATZIKI 120 Cal / 8.2 GR</t>
+    <t>PİRİNÇ PİLAVI 469 kcal / 12 gr protein</t>
   </si>
   <si>
-    <t>TAVUK HAŞLAMA 742 Cal / 32,45 GR</t>
+    <t>RICE PILAF 469 kcal / 12 gr protein</t>
   </si>
   <si>
-    <t>BOILED CHICKEN AND POTATO 742 Cal / 32,45 GR</t>
+    <t>SAFRANLI PİRİNÇ PİLAVI 469 kcal / 12 gr protein</t>
   </si>
   <si>
-    <t>HASANPAŞA KÖFTE 340 Cal / 22,60 GR</t>
+    <t>SOSLU SPAGETTİ 361 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve">  MEATBALLS 340 Cal / 22,60 GR</t>
+    <t>ETLİ KURU FASULYE  368 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>GÖKKUŞAĞI PİLAVI 397 Cal / 6,35 GR</t>
+    <t>SOSLU MAKARNA 505 kcal /19 gr protein</t>
   </si>
   <si>
-    <t>PILAF WITH VEGETABLES 397 Cal / 6,35 GR</t>
+    <t>PEYNİRLİ KOL BÖREĞİ 244 kcal / 15 gr protein</t>
   </si>
   <si>
-    <t>DÜĞÜN ÇORBA 314 Cal / 8,3 GR</t>
+    <t>RICE PILAF 417 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>SOUP WITH YOGURD AND WHEAT 314 Cal / 8,3 GR</t>
+    <t>SAFRANLI PİRİNÇ PİLAVI 414 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve">ROLLED PASTRY WITH SOFT CHEESE  244 Cal / 14,5 GR </t>
+    <t>BORANİ PİLAV 377 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>SUPANGLE 374 Cal / 1,5 GR</t>
+    <t>PİLİÇ ÇITIR 591 kcal / 36 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 374 Cal / 1,5 GR</t>
+    <t>BAKED CHICKEN 591 kcal /36 gr protein</t>
   </si>
   <si>
-    <t>GREEN PEAS WITH MEAT 248 Cal / 9 GR</t>
+    <t>MENGEN MUSAKKA 545 kcal / 10 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve"> PEYNİRLİ MAKARNA 510 Cal / 20 GR</t>
+    <t>MENGEN MOUSAKA 545 kcal / 10 gr protein</t>
   </si>
   <si>
-    <t>MACARONİ WITH CHEESE 510 Cal / 20 GR</t>
+    <t>OBA KEBABI 483 kcal / 26 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve"> KREMALI ŞEHRİYE ÇORBA 113 Cal / 2,15 GR</t>
+    <t>KAYSERİ MANTI 358 kcal / 14 gr protein</t>
   </si>
   <si>
-    <t>SÜLEYMANİYE ÇORBA 263 Cal / 11 GR</t>
+    <t>ETLİ PATATES OTURTMA 629 kcal / 13 gr protein</t>
   </si>
   <si>
-    <t>SOUP WITH RED LENTIL AND MINT 263 Cal / 11 GR</t>
+    <t>AKÇAABAT KÖFTE 248 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>TUTMAÇ ÇORBA 181 Cal / 3,9 GR</t>
+    <t>MEATBALL 248 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>TUTMAC SOUP 181 Cal / 3,9 GR</t>
+    <t>KARIŞIK  KIZARTMA  492 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>ISPANAKLI KAŞARLI SUFLE 312 Cal / 7,63 GR</t>
+    <t xml:space="preserve"> MIXED FRIED 492 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>SOUFFLLE WITH SPINACH AND KASAR 312 Cal / 7,63 GR</t>
+    <t>MERCİMEKLİ PİLAV 447 kcal / 17 gr protein</t>
   </si>
   <si>
-    <t>BAKED CHICKEN 591 Cal /36,13 GR</t>
+    <t>GREEN LENTIL PILAF 447 kcal / 17 gr protein</t>
   </si>
   <si>
-    <t>SOSLU MAKARNA 505 Cal /19.4 GR</t>
+    <t>DESSERT 512 kcal/ 5 gr protein</t>
   </si>
   <si>
-    <t>MACARONI WITH SAUCE 505 Cal /19.4 GR</t>
+    <t>KREMALI REVANİ 512 kcal kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>PİLİÇ ÇITIR 591 Cal / 36,13 GR</t>
+    <t>DESSERT 512 kcal kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>TALAŞ BÖREĞİ 402 Cal / 10,5 GR</t>
+    <t>HAŞHAŞLI ŞEKERPARE  421 kcal / 7 gr protein</t>
   </si>
   <si>
-    <t>PASTRY WITH CHEESE 402 Cal / 10,5 GR</t>
+    <t>DESSERT 421 kcal / 7 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve">SÜTLAÇ 185 Cal / 2,60 HR     </t>
+    <t>DESSERT 517 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 185 Cal / 2,60 HR</t>
+    <t>KARIŞIK TURŞU 10 kcal /1 gr protein</t>
   </si>
   <si>
-    <t>PEYNİRLİ MAKARNA 510 Cal / 20 GR</t>
+    <t>MIXED PICKLE 10 kcal / 1 gr protein</t>
   </si>
   <si>
-    <t>YOGURD WITH CARROT  76,25 / 4,4 gr</t>
+    <t xml:space="preserve"> CHICKEN W/ MUSHROOM 447 kcal / 34 gr protein</t>
   </si>
   <si>
-    <t>GEMİCİ USULU KURU FASULYE 357 Cal / 15,8 GR</t>
+    <t xml:space="preserve"> MACARONI W/ CHEESE 76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>WHITE BEANS 357 Cal / 15,8 GR</t>
+    <t>YOGHURT W/ PARSLEY  76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>ALİ PAŞA PİLAV 330 Cal  / 5 GR</t>
+    <t>GREEN PEAS W/ MEAT 248 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAF WITH MEAT 330 Cal  / 5 GR</t>
+    <t>WHITE BEANS W/ MEAT 368 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>RED LENTIL SOUP 262 / 9,2 gr</t>
+    <t>GRILLED MEATBALLS W/ VEGETABLES 311 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t>FIRINDA BEŞAMEL SOSLU MANTARLI ET  405 Cal / 31,98 GR</t>
+    <t>MEAT SAUTE W/ VEGETABLES 483 kcal / 26 gr protein</t>
   </si>
   <si>
-    <t>BAKED MEAT WITH MUSHROOMS AND BECHAMEL SAUCE 405 Cal / 31,98 GR</t>
+    <t>YOGHURT W/ CARROT  76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>KREMALI REVANİ 512 Cal / 5,20 GR</t>
+    <t>POTATO W/ MINCED MEAT 629 kcal / 13 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 512 Cal / 5,20 GR</t>
+    <t>STUFFED VEGETABLES W/ MEAT 627 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>MERCİMEKLİ PİLAV 447 Cal / 16,9 GR</t>
+    <t>ROLLED PASTRY W/ SOFT CHEESE 244 kcal / 15 gr protein</t>
   </si>
   <si>
-    <t>GREEN LENTIL PILAF 447 Cal / 16,9 GR</t>
+    <t>FRIED CHICKEN W/ SAUCE 998 kcal / 52 gr protein</t>
   </si>
   <si>
-    <t>YÖRÜK ÇORBA 111 Cal / 2,8 GR</t>
+    <t>YOGHURT W/ MINT 76 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>PATATES OTURTMA  507 Cal / 15 GR</t>
+    <t>DUMPLINGS COVERED W/ YOGHURT AND GARLIC SAUCE 358 kcal / 14 gr protein</t>
   </si>
   <si>
-    <t>POTATO WITH MINCED MEAT 507 Cal / 15 GR</t>
+    <t>CHICKEN W/ BECHAMEL SAUCE 431 kcal / 35 gr protein</t>
   </si>
   <si>
-    <t>SOUP WITH YOGURD AND CHICKPEAS 111 Cal / 2,8 GR</t>
+    <t>GREEN BEANS W/ MEAT 168 kcal / 7 gr protein</t>
   </si>
   <si>
-    <t>TAVUK KIZARTMA 998 Cal / 52,15 GR</t>
+    <t>CHICKPEAS W/ MEAT 396 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t>FRIED CHICKEN 998 Cal / 52,15 GR</t>
+    <t>PILAF W/ VEGETABLES 397 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>DOMATESLİ BULGUR PİLAVI  291 Cal / 6.5 GR</t>
+    <t>BAKED MEAT W/ MUSHROOMS AND BECHAMEL SAUCE 405 kcal / 32 gr protein</t>
   </si>
   <si>
-    <t>CRACKED WHEAT PILAFF WITH TOMATO 291 Cal / 6.5 GR</t>
+    <t>MACARONİ W/ SAUCE 510 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>TERBİYELİ KÖFTE 340 Cal / 22,60 GR</t>
+    <t>LAMB STEW W/ VEGETABLES 470 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>MEATBALL 340 Cal / 22,60 GR</t>
+    <t xml:space="preserve">ROLLED PASTRY W/ SOFT CHEESE  244 kcal / 15 gr protein </t>
   </si>
   <si>
-    <t>KAYMAKLI MUSKA TATLISI 517 Cal / 5,3 GR</t>
+    <t>SPAGHETTI W/ SAUCE 361 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>DESSERT 517 Cal / 5,3 GR</t>
+    <t>YOGHURT W/ MINT 76 kcal/ 4 gr protein</t>
   </si>
   <si>
-    <t>SAFRANLI PİRİNÇ PİLAVI 414 Cal / 6,3 GR</t>
+    <t>MACARONI W/ SAUCE 505 kcal /19 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAFF WITH SAFFRON 414 Cal / 6,3 GR</t>
+    <t>RICE PILAF W/ MEAT 330 kcal  / 5 gr protein</t>
   </si>
   <si>
-    <t>CHICK PEA STEW 396 Cal / 24 GR</t>
+    <t>MACARONİ W/ CHEESE 510 kcal / 20 gr protein</t>
   </si>
   <si>
-    <t>YOĞURTLU AYDIN KÖFTE  427 Cal / 22,01 GR</t>
+    <t>MINCED MEAT W/ ONION AND PEPPER 375 kcal / 30 gr protein</t>
   </si>
   <si>
-    <t>MEATBALLS WITH YOGHURT 427 Cal / 22,01 GR</t>
+    <t>YOGHURT W/ CARROT  76 kcal/ 4 gr protein</t>
   </si>
   <si>
-    <t>EKMEK KADAYIFI 374 Cal / 1,5 GR</t>
+    <t>PASTRY W/ CHEESE 402 kcal / 11 gr protein</t>
   </si>
   <si>
-    <t>RED LENTIL BALLS 887 Cal / 20,57 GR</t>
+    <t>POTATO W/ MINCED MEAT 507 kcal / 15 gr protein</t>
   </si>
   <si>
-    <t>ANTEP USULÜ MERCİMEKLİ KÖFTE 887 Cal / 20,57 GR</t>
+    <t>CHICKEN STEAK W/ SPECIAL SAUCE 390 kcal / 355 gr protein</t>
   </si>
   <si>
-    <t>SEBZELİ  IZGARA KÖFTE 311 Cal / 24 GR</t>
+    <t>NOODLE W/ OLIVE 343 kcal / 55 gr protein</t>
   </si>
   <si>
-    <t>GRILLED MEATBALLS WITH VEGETABLES 311 Cal / 24 GR</t>
+    <t>MEATBALLS W/ POTATO PUREE 403 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t>OBA KEBABI 483 Cal / 25,91 GR</t>
+    <t>OKRA W/ MEAT</t>
   </si>
   <si>
-    <t>MEAT SAUTE WITH VEGETABLES 483 Cal / 25,91 GR</t>
+    <t>RICE PILAF W/ RED PEPPER 377 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>ETLİ PATATES OTURTMA 629 Cal / 12,83 GR</t>
+    <t>MEATBALLS W/ YOGHURT 427 kcal / 22,01 gr protein</t>
   </si>
   <si>
-    <t>POTATO WITH MINCED MEAT 629 Cal / 12,83 GR</t>
+    <t>TOMATO SOUP 176 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve"> MIXED FRIED 492 Cal / 4,65 GR</t>
+    <t>MERCİMEK ÇORBA 262 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>ETLİ TÜRLÜ  470 Cal / 21 GR</t>
+    <t>RED LENTIL SOUP 262 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>LAMB STEW WITH VEGETABLES 470 Cal / 21 GR</t>
+    <t>KREMALI ŞEHRİYE ÇORBA 262 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>MISIR ÇORBASI 198 Cal / 3,35 GR</t>
+    <t>VERMİCELLİ SOUP 262 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>SOUP WITH CORN 198 Cal / 3,35 GR</t>
+    <t>SÜZME MERCİMEK ÇORBA 262 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>KİLİS TAVA 375 Cal / 30,1 GR</t>
+    <t>MISIR ÇORBASI 198 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>MINCED MEAT WITH ONION AND PEPPER 375 Cal / 30,1 GR</t>
+    <t>SOUP W/ CORN 198 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>İNEGÖL KÖFTE 651 Cal / 24,64 GR</t>
+    <t>SEBZELİ ÇORBA 189 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>MEATBALLS 651 Cal / 24,64 GR</t>
+    <t>VEGETABLE SOUP 189 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOSLU MAKARNA 510 Cal / 20 GR</t>
+    <t>DÜĞÜN ÇORBA 314 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>MACARONİ WITH SAUCE 510 Cal / 20 GR</t>
+    <t>EZOGELİN ÇORBA 279 kcal / 10 gr protein</t>
   </si>
   <si>
-    <t>ULUDAĞ KÖFTE 298 Cal / 23 GR</t>
+    <t>EZOGELIN SOUP 279 kcal / 10 gr protein</t>
   </si>
   <si>
-    <t>MEATBALLS 298 Cal / 23 GR</t>
+    <t>RED LENTIL SOUP 279 kcal / 10 gr protein</t>
   </si>
   <si>
-    <t>CRACKED WHEAT PILAFF 377 Cal / 8,75 GR</t>
+    <t>YAYLA ÇORBA 240 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>MEATBALLS WITH POTATO PUREE 403 Cal / 23,68 GR</t>
+    <t>SOUP W/ YOGHURT  240 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>PÜRELİ ROSTO KÖFTE  403 Cal / 23,68 GR</t>
+    <t>TUTMAÇ ÇORBA 181 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>PEPE SOSLU PİLİÇ BİFTEK  390 Cal / 34,75 GR</t>
+    <t>TUTMAC SOUP 181 kcal / 4 gr protein</t>
   </si>
   <si>
-    <t>CHICKEN STEAK WITH SPECIAL SAUCE 390 Cal / 34,75 GR</t>
+    <t>YÖRÜK ÇORBA 111 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>ZEYTİNLİ ERİŞTE 343 Cal / 4,75 GR</t>
+    <t>ŞEHRİYE ÇORBA 113 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>NOODLE WITH OLIVE 343 Cal / 4,75 GR</t>
+    <t>VERMICELLI SOUP 113 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>RED MULLET WITH OLIVE OIL 368 Cal / 20,6 GR</t>
+    <t xml:space="preserve"> KREMALI ŞEHRİYE ÇORBA 113 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>Z.Y BARBUNYA 368 Cal / 20,6 GR</t>
+    <t>SOUP W/ WHEAT 314 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAF 397 Cal / 6,35 GR</t>
+    <t>SOUP W/ LENTIL AND MINT 263 kcal / 11 gr protein</t>
   </si>
   <si>
-    <t>CRACKED WHEAT PILAF WITH TOMATO 291 Cal / 6.5 GR</t>
+    <t>SOUP W/ CHICKPEAS 111 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>KARIŞIK TURŞU 10 Cal /0.6 GR</t>
+    <t>SOUP W/ RICE 240 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>MIXED PICKLE 10 Cal / 0.6 GR</t>
+    <t>SOUP W/  RICE 240 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>BAHAR KEBABI 469 Cal / 32 GR</t>
+    <t>SOUP W/WHEAT 314 kcal / 8 gr protein</t>
   </si>
   <si>
-    <t>KEBAP WITH VEGETABLES 469 Cal / 32 GR</t>
+    <t>MUSKA TATLISI 517 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>ETLİ TÜRLÜ 470 Cal / 21 GR</t>
+    <t>ZERDE 107 kcal / 2 gr protein</t>
   </si>
   <si>
-    <t>SEBZE GARNİTÜRLÜ KÖRİ SOSLU TAVUK 448 Cal / 31,49 GR</t>
+    <t>ŞEKERPARE  421 kcal / 7 gr protein</t>
   </si>
   <si>
-    <t>CHICKEN WITH VEGETABLES KÖRİ SAUCE 448 Cal / 31,49 GR</t>
+    <t>REVANİ 512 kcal/ 5 gr protein</t>
   </si>
   <si>
-    <t>MÜCANDRA PILAVI</t>
+    <t>RICE PILAF W/ SAFFRON 469 kcal / 12 gr protein</t>
   </si>
   <si>
-    <t>BORANİ PİLAV 377 Cal / 4,95 GR</t>
+    <t>RICE PILAF W/ SAFFRON 414 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAF WITH RED PEPPER 377 Cal / 4,95 GR</t>
+    <t>RED MULLET 368 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>ETLİ KURU FASULYE  368 Cal / 20,6 GR</t>
+    <t>BARBUNYA 368 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>SAFRANLI PİRİNÇ PİLAVI 469 Cal / 12,0 GR</t>
+    <t>WHEAT PILAF 413 kcal / 11 gr protein</t>
   </si>
   <si>
-    <t>RICE PILAFF WITH SAFFRON 469 Cal / 12,0 GR</t>
+    <t>WHEAT PILAF 291 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>Z.Y TAZE FASÜLYE 152,54 Cal / 2,9 GR</t>
+    <t>WHEAT PILAF 377 kcal / 9 gr protein</t>
   </si>
   <si>
-    <t>ETLİ KARIŞIK ANTEP KURU DOLMASI 627 Cal / 4,7 GR</t>
+    <t>BEANS W/ OLIVE OIL 153 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>STUFFED VEGETABLES WITH MEAT 627 Cal / 4,7 GR</t>
+    <t>LENTIL MEATBALLS 887 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>ETLİ TAZE FASÜLYE 168 Cal / 7,0 GR</t>
+    <t>MERCİMEKLİ KÖFTE 887 kcal / 21 gr protein</t>
   </si>
   <si>
-    <t>MENGEN MOUSAKA 545,35 Cal / 9,63 GR</t>
+    <t>TAZE FASÜLYE 153 kcal / 3 gr protein</t>
   </si>
   <si>
-    <t>MENGEN MUSAKKA 545,35 Cal / 9,63 GR</t>
+    <t>PİRİNÇ PİLAVI 417 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>ETLİ NOHUT YAHNİ 396 Cal / 24 GR</t>
+    <t>BULGUR PİLAVI  291 kcal / 6 gr protein</t>
   </si>
   <si>
-    <t>YOGHURT WITH MINT 76,25 / 4,4 gr</t>
+    <t>KÖRİ SOSLU TAVUK 448 kcal / 31,49 gr protein</t>
   </si>
   <si>
-    <t>YOGHURT WITH PARSLEY  76,25 Cal / 4,4 GR</t>
+    <t>ETLİ KURU DOLMA 627 kcal / 5 gr protein</t>
   </si>
   <si>
-    <t>OKRA WITH MEAT</t>
+    <t>ROSTO KÖFTE  403 kcal / 24 gr protein</t>
   </si>
   <si>
-    <t>ETLİ BAMYA 256,17 Cal / 11,69 GR</t>
+    <t>PİLİÇ BİFTEK  390 kcal / 355 gr protein</t>
   </si>
   <si>
-    <t>KARIŞIK  KIZARTMA  492 Cal / 4,65 GR</t>
+    <t>ETLİ TAZE FASULYE 168 kcal / 7 gr protein</t>
   </si>
   <si>
-    <t>KÖFTELİ ISPANAK 295,13 / 23,75 GR</t>
+    <t>BEŞAMEL SOSLU MANTARLI ET  405 kcal / 32 gr protein</t>
   </si>
   <si>
-    <t>SPANACAH WITH MEATBALLS 295,13 / 23,75 GR</t>
+    <t>BEŞAMEL SOSLU MANTARLI TAVUK 431 kcal / 35 gr protein</t>
   </si>
   <si>
-    <t>YOGHURT WITH MINT 76,25 Cal / 4,4 GR</t>
+    <t>SPINACH W/ MEATBALLS 295,13 / 23,75 gr protein</t>
+  </si>
+  <si>
+    <t>KEBAB W/ VEGETABLES 469 kcal / 32 gr protein</t>
+  </si>
+  <si>
+    <t>DUMPLINGS  358 kcal / 14 gr protein</t>
+  </si>
+  <si>
+    <t>CURRY CHICKEN  448 kcal / 31,49 gr protein</t>
+  </si>
+  <si>
+    <t>MEATBALLS 340 kcal / 23 gr protein</t>
+  </si>
+  <si>
+    <t>SPINACH AND CHEESE SOUFFLE 312 kcal / 8 gr protein</t>
+  </si>
+  <si>
+    <t>BOILED CHICKEN 742 kcal / 32 gr protein</t>
+  </si>
+  <si>
+    <t>MÜCANDRA PILAVI 291 kcal / 6 gr protein</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1209,34 +1230,34 @@
         <v>15</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
@@ -1270,34 +1291,34 @@
         <v>17</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
@@ -1342,34 +1363,34 @@
         <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
@@ -1403,34 +1424,34 @@
         <v>17</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
@@ -1475,34 +1496,34 @@
         <v>15</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
@@ -1536,34 +1557,34 @@
         <v>17</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -1608,34 +1629,34 @@
         <v>15</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="L8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="P8" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -1669,34 +1690,34 @@
         <v>17</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -1741,34 +1762,34 @@
         <v>15</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -1802,34 +1823,34 @@
         <v>17</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
@@ -1874,34 +1895,34 @@
         <v>15</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
@@ -1935,34 +1956,34 @@
         <v>17</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
@@ -2007,34 +2028,34 @@
         <v>15</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2068,34 +2089,34 @@
         <v>17</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
@@ -2140,34 +2161,34 @@
         <v>15</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
@@ -2201,34 +2222,34 @@
         <v>17</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
@@ -2273,34 +2294,34 @@
         <v>15</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
@@ -2334,34 +2355,34 @@
         <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
@@ -2406,34 +2427,34 @@
         <v>15</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
@@ -2467,34 +2488,34 @@
         <v>17</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
@@ -2539,34 +2560,34 @@
         <v>15</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -2600,34 +2621,34 @@
         <v>17</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -2672,34 +2693,34 @@
         <v>15</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="P24" s="10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -2733,34 +2754,34 @@
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
@@ -2805,34 +2826,34 @@
         <v>15</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="Q26" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
@@ -2866,34 +2887,34 @@
         <v>17</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
@@ -2938,34 +2959,34 @@
         <v>15</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
@@ -2999,34 +3020,34 @@
         <v>17</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="I29" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="M29" s="13" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
@@ -3071,34 +3092,34 @@
         <v>15</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
@@ -3132,34 +3153,34 @@
         <v>17</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
@@ -3204,34 +3225,34 @@
         <v>15</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
@@ -3265,34 +3286,34 @@
         <v>17</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
@@ -3337,34 +3358,34 @@
         <v>15</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
@@ -3398,34 +3419,34 @@
         <v>17</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M35" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="Q35" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
@@ -3470,34 +3491,34 @@
         <v>15</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
@@ -3531,34 +3552,34 @@
         <v>17</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
@@ -3603,34 +3624,34 @@
         <v>15</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R38" s="18"/>
       <c r="S38" s="18"/>
@@ -3664,34 +3685,34 @@
         <v>17</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
@@ -3736,34 +3757,34 @@
         <v>15</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="N40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="Q40" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
@@ -3797,34 +3818,34 @@
         <v>17</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
